--- a/SEROFOI/summary_models/COL-024-04_HPV18.xlsx
+++ b/SEROFOI/summary_models/COL-024-04_HPV18.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caj_d\OneDrive\Escritorio\Proyecto Fuerza de infección VPH\GIT\hpv_seroprevalence\SEROFOI\summary_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DEB338-4B6B-49F9-A2C5-029301074045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288ACA65-04C4-465F-8EE6-9B75CB67A1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>elpd_loo</t>
   </si>
@@ -74,6 +74,24 @@
   </si>
   <si>
     <t>Edad con seroreversion</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>Tasa de serorreversion</t>
+  </si>
+  <si>
+    <t>Tasa de serorreversión Rhat</t>
+  </si>
+  <si>
+    <t>Fuerza de infección</t>
+  </si>
+  <si>
+    <t>FOI_Rhat</t>
+  </si>
+  <si>
+    <t>Convergencia</t>
   </si>
 </sst>
 </file>
@@ -430,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A5"/>
+      <selection activeCell="A8" sqref="A8:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -441,8 +459,8 @@
     <col min="1" max="1" width="26.77734375" customWidth="1"/>
     <col min="2" max="2" width="14.109375" customWidth="1"/>
     <col min="3" max="3" width="26.109375" customWidth="1"/>
-    <col min="6" max="6" width="18.77734375" customWidth="1"/>
-    <col min="7" max="7" width="23.109375" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -536,6 +554,97 @@
         <v>1</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/SEROFOI/summary_models/COL-024-04_HPV18.xlsx
+++ b/SEROFOI/summary_models/COL-024-04_HPV18.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caj_d\OneDrive\Escritorio\Proyecto Fuerza de infección VPH\GIT\hpv_seroprevalence\SEROFOI\summary_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288ACA65-04C4-465F-8EE6-9B75CB67A1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58590271-09A6-484B-A8E7-491A9F852EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,12 +79,6 @@
     <t>si</t>
   </si>
   <si>
-    <t>Tasa de serorreversion</t>
-  </si>
-  <si>
-    <t>Tasa de serorreversión Rhat</t>
-  </si>
-  <si>
     <t>Fuerza de infección</t>
   </si>
   <si>
@@ -92,6 +86,12 @@
   </si>
   <si>
     <t>Convergencia</t>
+  </si>
+  <si>
+    <t>Tasa de seroreversion</t>
+  </si>
+  <si>
+    <t>Tasa de seroreversión Rhat</t>
   </si>
 </sst>
 </file>
@@ -562,19 +562,19 @@
         <v>0</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
